--- a/Archivos Excel/givesOpinionDisc.xlsx
+++ b/Archivos Excel/givesOpinionDisc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80836514-753F-46D7-82CE-28A4E3C4AF4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9666B94F-B813-4251-AD8E-92B0F2932768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{1E3CABB1-F678-4A75-92DF-54A8E5A34553}"/>
   </bookViews>
@@ -27,6 +27,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>insert into givesOpinionDisc(</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,15 +390,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFB4382-0A6F-43CD-85E3-9488E347B483}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2321423</v>
       </c>
@@ -397,8 +415,15 @@
       <c r="D1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="str">
+        <f>CONCATENATE($J$1,A1,$J$3,B1,$J$3,C1,$J$2)</f>
+        <v>insert into givesOpinionDisc(2321423,2056,8);</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2321423</v>
       </c>
@@ -408,8 +433,15 @@
       <c r="C2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F20" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
+        <v>insert into givesOpinionDisc(2321423,2984,8);</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2321423</v>
       </c>
@@ -419,13 +451,20 @@
       <c r="C3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionDisc(2321423,1784,7);</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4737492</v>
       </c>
@@ -438,8 +477,12 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionDisc(4737492,2984,8);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4737492</v>
       </c>
@@ -449,13 +492,17 @@
       <c r="C8">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionDisc(4737492,1784,5);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4528483</v>
       </c>
@@ -468,13 +515,17 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionDisc(4528483,2984,7);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>7</v>
       </c>

--- a/Archivos Excel/givesOpinionDisc.xlsx
+++ b/Archivos Excel/givesOpinionDisc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9666B94F-B813-4251-AD8E-92B0F2932768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF369D74-02E2-46BD-8B4B-A515DE9AFA0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{1E3CABB1-F678-4A75-92DF-54A8E5A34553}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>insert into givesOpinionDisc(</t>
+    <t>insert into givesOpinionDisc values(</t>
   </si>
 </sst>
 </file>
@@ -393,7 +394,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +418,7 @@
       </c>
       <c r="F1" t="str">
         <f>CONCATENATE($J$1,A1,$J$3,B1,$J$3,C1,$J$2)</f>
-        <v>insert into givesOpinionDisc(2321423,2056,8);</v>
+        <v>insert into givesOpinionDisc values(2321423,2056,8);</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -434,8 +435,8 @@
         <v>8</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F20" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
-        <v>insert into givesOpinionDisc(2321423,2984,8);</v>
+        <f t="shared" ref="F2:F12" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
+        <v>insert into givesOpinionDisc values(2321423,2984,8);</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -453,7 +454,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc(2321423,1784,7);</v>
+        <v>insert into givesOpinionDisc values(2321423,1784,7);</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -479,7 +480,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc(4737492,2984,8);</v>
+        <v>insert into givesOpinionDisc values(4737492,2984,8);</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -494,7 +495,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc(4737492,1784,5);</v>
+        <v>insert into givesOpinionDisc values(4737492,1784,5);</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -517,7 +518,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc(4528483,2984,7);</v>
+        <v>insert into givesOpinionDisc values(4528483,2984,7);</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">

--- a/Archivos Excel/givesOpinionDisc.xlsx
+++ b/Archivos Excel/givesOpinionDisc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF369D74-02E2-46BD-8B4B-A515DE9AFA0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5960AFCC-3EF6-4AE1-9C94-0B22F5E7F7F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{1E3CABB1-F678-4A75-92DF-54A8E5A34553}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFB4382-0A6F-43CD-85E3-9488E347B483}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,8 +416,8 @@
         <v>1</v>
       </c>
       <c r="F1" t="str">
-        <f>CONCATENATE($J$1,A1,$J$3,B1,$J$3,C1,$J$2)</f>
-        <v>insert into givesOpinionDisc values(2321423,2056,8);</v>
+        <f t="shared" ref="F1:F3" si="0">CONCATENATE($J$1,$E$20,A1,$J$3,B1,$J$3,C1,$J$2)</f>
+        <v>insert into givesOpinionDisc values(02321423,2056,8);</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -435,8 +434,8 @@
         <v>8</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F12" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
-        <v>insert into givesOpinionDisc values(2321423,2984,8);</v>
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionDisc values(02321423,2984,8);</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -454,7 +453,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc values(2321423,1784,7);</v>
+        <v>insert into givesOpinionDisc values(02321423,1784,7);</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -479,8 +478,8 @@
         <v>3</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc values(4737492,2984,8);</v>
+        <f t="shared" ref="F7:F8" si="1">CONCATENATE($J$1,$E$20,A7,$J$3,B7,$J$3,C7,$J$2)</f>
+        <v>insert into givesOpinionDisc values(04737492,2984,8);</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -494,8 +493,8 @@
         <v>5</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc values(4737492,1784,5);</v>
+        <f t="shared" si="1"/>
+        <v>insert into givesOpinionDisc values(04737492,1784,5);</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -517,8 +516,8 @@
         <v>5</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionDisc values(4528483,2984,7);</v>
+        <f>CONCATENATE($J$1,$E$20,A12,$J$3,B12,$J$3,C12,$J$2)</f>
+        <v>insert into givesOpinionDisc values(04528483,2984,7);</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -531,14 +530,362 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1238471</v>
+      </c>
+      <c r="B21">
+        <v>1203</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="F21" t="str">
+        <f>CONCATENATE($J$1,$E$20,A21,$J$3,B21,$J$3,C21,$J$2)</f>
+        <v>insert into givesOpinionDisc values(01238471,1203,7);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1238471</v>
+      </c>
+      <c r="B22">
+        <v>8892</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22:F43" si="2">CONCATENATE($J$1,$E$20,A22,$J$3,B22,$J$3,C22,$J$2)</f>
+        <v>insert into givesOpinionDisc values(01238471,8892,5);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2321423</v>
+      </c>
+      <c r="B23">
+        <v>2056</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(02321423,2056,8);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2321423</v>
+      </c>
+      <c r="B24">
+        <v>2984</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(02321423,2984,8);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2321423</v>
+      </c>
+      <c r="B25">
+        <v>1784</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(02321423,1784,7);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4528483</v>
+      </c>
+      <c r="B26">
+        <v>1203</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(04528483,1203,10);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4528483</v>
+      </c>
+      <c r="B27">
+        <v>8892</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(04528483,8892,7);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4737492</v>
+      </c>
+      <c r="B28">
+        <v>3282</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(04737492,3282,8);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4737492</v>
+      </c>
+      <c r="B29">
+        <v>6234</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(04737492,6234,5);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4917493</v>
+      </c>
+      <c r="B30">
+        <v>1203</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(04917493,1203,6);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9373493</v>
+      </c>
+      <c r="B31">
+        <v>8892</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(09373493,8892,8);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9373493</v>
+      </c>
+      <c r="B32">
+        <v>5738</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(09373493,5738,8);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9373493</v>
+      </c>
+      <c r="B33">
+        <v>7231</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(09373493,7231,9);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5838743</v>
+      </c>
+      <c r="B34">
+        <v>3627</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(05838743,3627,10);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4782107</v>
+      </c>
+      <c r="B35">
+        <v>3492</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(04782107,3492,6);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9043278</v>
+      </c>
+      <c r="B36">
+        <v>7329</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(09043278,7329,5);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4309871</v>
+      </c>
+      <c r="B37">
+        <v>6234</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(04309871,6234,7);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9043278</v>
+      </c>
+      <c r="B38">
+        <v>6321</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(09043278,6321,8);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9373493</v>
+      </c>
+      <c r="B39">
+        <v>3229</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(09373493,3229,9);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9043278</v>
+      </c>
+      <c r="B40">
+        <v>7482</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(09043278,7482,10);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2374827</v>
+      </c>
+      <c r="B41">
+        <v>7482</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(02374827,7482,10);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3283295</v>
+      </c>
+      <c r="B42">
+        <v>6321</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(03283295,6321,9);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3421987</v>
+      </c>
+      <c r="B43">
+        <v>6321</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into givesOpinionDisc values(03421987,6321,6);</v>
       </c>
     </row>
   </sheetData>
